--- a/Results/Act/Price/Results_world_act_price_Avg.xlsx
+++ b/Results/Act/Price/Results_world_act_price_Avg.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -28,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0285183552802</v>
+        <v>1072.353295692877</v>
       </c>
       <c r="E2">
-        <v>302.5764773035405</v>
+        <v>1397.592550984388</v>
       </c>
       <c r="F2">
-        <v>500.2094903601641</v>
+        <v>1396.906498779885</v>
       </c>
       <c r="G2">
-        <v>370.5936282310217</v>
+        <v>1327.436354936901</v>
       </c>
       <c r="H2">
-        <v>948.9859583073192</v>
+        <v>1780.396702028428</v>
       </c>
       <c r="I2">
-        <v>545.2797178540785</v>
+        <v>1284.428452375686</v>
       </c>
       <c r="J2">
-        <v>608.5051532819382</v>
+        <v>2324.081358655799</v>
       </c>
       <c r="K2">
-        <v>699.9313807356331</v>
+        <v>2310.454967410925</v>
       </c>
       <c r="L2">
-        <v>557.9321226751504</v>
+        <v>2055.826773599356</v>
       </c>
       <c r="M2">
-        <v>684.702288067943</v>
+        <v>1894.905341665539</v>
       </c>
       <c r="N2">
-        <v>347.7330270055991</v>
+        <v>4053.605641952215</v>
       </c>
       <c r="O2">
-        <v>386.7332570955643</v>
+        <v>2460.582577172025</v>
       </c>
       <c r="P2">
-        <v>777.0476193358888</v>
+        <v>4931.653758089969</v>
       </c>
       <c r="Q2">
-        <v>789.5606310926714</v>
+        <v>5322.026780135112</v>
       </c>
       <c r="R2">
-        <v>802.5177140645487</v>
+        <v>5716.829291413501</v>
       </c>
       <c r="S2">
-        <v>1987.822781425907</v>
+        <v>12499.73782611195</v>
       </c>
       <c r="T2">
-        <v>1985.022352704705</v>
+        <v>13383.15587311338</v>
       </c>
       <c r="U2">
-        <v>1988.890663109364</v>
+        <v>14275.6258586889</v>
       </c>
       <c r="V2">
-        <v>2000.885116488276</v>
+        <v>15183.25412685697</v>
       </c>
       <c r="W2">
-        <v>2013.822037324557</v>
+        <v>16102.75083193404</v>
       </c>
       <c r="X2">
-        <v>1856.148267252444</v>
+        <v>16173.78323175088</v>
       </c>
       <c r="Y2">
-        <v>1873.731027255947</v>
+        <v>17051.84931122353</v>
       </c>
       <c r="Z2">
-        <v>1887.449636401245</v>
+        <v>17935.96280871253</v>
       </c>
       <c r="AA2">
-        <v>1903.4270164954</v>
+        <v>18836.1276211078</v>
       </c>
       <c r="AB2">
-        <v>1944.091908156045</v>
+        <v>19758.54771821125</v>
       </c>
       <c r="AC2">
-        <v>661.5515637868841</v>
+        <v>9182.444165643976</v>
       </c>
       <c r="AD2">
-        <v>733.6812767530986</v>
+        <v>9422.587217889932</v>
       </c>
       <c r="AE2">
-        <v>803.6995861134671</v>
+        <v>9725.868088785724</v>
       </c>
       <c r="AF2">
-        <v>800.5739562279661</v>
+        <v>10020.49900254337</v>
       </c>
       <c r="AG2">
-        <v>778.2629880188812</v>
+        <v>10362.36241351182</v>
       </c>
       <c r="AH2">
-        <v>592.534736415383</v>
+        <v>6553.86815173366</v>
       </c>
       <c r="AI2">
-        <v>580.0493239207696</v>
+        <v>6600.595290503665</v>
       </c>
       <c r="AJ2">
-        <v>563.3245651347795</v>
+        <v>6876.35344569633</v>
       </c>
       <c r="AK2">
-        <v>553.6407585919716</v>
+        <v>7375.675582105846</v>
       </c>
       <c r="AL2">
-        <v>613.7053066222925</v>
+        <v>7861.478641434027</v>
       </c>
       <c r="AM2">
-        <v>743.5982780656896</v>
+        <v>10424.05491538111</v>
       </c>
       <c r="AN2">
-        <v>886.418545161262</v>
+        <v>11609.05352714946</v>
       </c>
       <c r="AO2">
-        <v>1087.553057535116</v>
+        <v>13240.13565370385</v>
       </c>
       <c r="AP2">
-        <v>1344.205520537869</v>
+        <v>15329.01187697032</v>
       </c>
       <c r="AQ2">
-        <v>1478.513249449392</v>
+        <v>16807.22019564483</v>
       </c>
       <c r="AR2">
-        <v>1496.458956865845</v>
+        <v>20921.07362790342</v>
       </c>
       <c r="AS2">
-        <v>1499.644785206058</v>
+        <v>21724.67085875202</v>
       </c>
       <c r="AT2">
-        <v>1488.743125259237</v>
+        <v>22382.57741367729</v>
       </c>
       <c r="AU2">
-        <v>1465.789737028983</v>
+        <v>22900.81322224519</v>
       </c>
       <c r="AV2">
-        <v>1463.068117586572</v>
+        <v>23411.45984098608</v>
       </c>
       <c r="AW2">
-        <v>1448.610371232532</v>
+        <v>24494.30053031415</v>
       </c>
       <c r="AX2">
-        <v>1595.334272852092</v>
+        <v>24206.44088540422</v>
       </c>
       <c r="AY2">
-        <v>1429.762005329978</v>
+        <v>22737.33184152858</v>
       </c>
       <c r="AZ2">
-        <v>1202.167354754456</v>
+        <v>20421.67950533389</v>
       </c>
       <c r="BA2">
-        <v>1105.950400963364</v>
+        <v>19261.68579641887</v>
       </c>
       <c r="BB2">
-        <v>1092.333887074424</v>
+        <v>18324.92566768865</v>
       </c>
       <c r="BC2">
-        <v>1079.902726508236</v>
+        <v>18165.02871552224</v>
       </c>
       <c r="BD2">
-        <v>1037.619531703341</v>
+        <v>17627.02712780203</v>
       </c>
       <c r="BE2">
-        <v>987.4844623839087</v>
+        <v>16849.51182027758</v>
       </c>
       <c r="BF2">
-        <v>959.7157130621125</v>
+        <v>16579.44417659634</v>
       </c>
       <c r="BG2">
-        <v>935.0583356835298</v>
+        <v>16248.43825045036</v>
       </c>
       <c r="BH2">
-        <v>968.8407024174857</v>
+        <v>16834.48915604609</v>
       </c>
       <c r="BI2">
-        <v>1051.536411741739</v>
+        <v>17735.66827117397</v>
       </c>
       <c r="BJ2">
-        <v>1182.51933848466</v>
+        <v>18959.53639438669</v>
       </c>
       <c r="BK2">
-        <v>1346.493326375554</v>
+        <v>20268.69373185659</v>
       </c>
       <c r="BL2">
-        <v>1508.898326054047</v>
+        <v>21273.15979269232</v>
       </c>
       <c r="BM2">
-        <v>1674.564118586234</v>
+        <v>22747.83242770145</v>
       </c>
       <c r="BN2">
-        <v>1775.542893136047</v>
+        <v>24218.24032485867</v>
       </c>
       <c r="BO2">
-        <v>1808.993743949417</v>
+        <v>25539.8082889455</v>
       </c>
       <c r="BP2">
-        <v>1810.639100090528</v>
+        <v>26348.93023495959</v>
       </c>
       <c r="BQ2">
-        <v>1788.596431697838</v>
+        <v>26553.6679192677</v>
       </c>
       <c r="BR2">
-        <v>1776.573172198013</v>
+        <v>26824.10198194874</v>
       </c>
       <c r="BS2">
-        <v>1764.599854664516</v>
+        <v>26978.96296129161</v>
       </c>
       <c r="BT2">
-        <v>1746.307146799923</v>
+        <v>26869.00726595922</v>
       </c>
       <c r="BU2">
-        <v>1696.499001284441</v>
+        <v>26253.25870991717</v>
       </c>
       <c r="BV2">
-        <v>1571.348737600101</v>
+        <v>24944.945431063</v>
       </c>
       <c r="BW2">
-        <v>1442.100967431056</v>
+        <v>23778.99042259736</v>
       </c>
       <c r="BX2">
-        <v>1365.944104480994</v>
+        <v>22914.01448902589</v>
       </c>
       <c r="BY2">
-        <v>1338.561601461664</v>
+        <v>22363.51020540387</v>
       </c>
       <c r="BZ2">
-        <v>1318.374552930653</v>
+        <v>21937.33695298109</v>
       </c>
       <c r="CA2">
-        <v>1275.037814817628</v>
+        <v>21292.91548128042</v>
       </c>
       <c r="CB2">
-        <v>1247.379651231972</v>
+        <v>20879.29935876139</v>
       </c>
       <c r="CC2">
-        <v>1237.338645110904</v>
+        <v>20636.13617656849</v>
       </c>
       <c r="CD2">
-        <v>1256.315208130591</v>
+        <v>20619.14855896553</v>
       </c>
       <c r="CE2">
-        <v>1314.323451550753</v>
+        <v>20833.29037147687</v>
       </c>
       <c r="CF2">
-        <v>1398.920024115524</v>
+        <v>20958.44091391669</v>
       </c>
       <c r="CG2">
-        <v>1533.490488220202</v>
+        <v>21418.40313117293</v>
       </c>
       <c r="CH2">
-        <v>1685.752049297882</v>
+        <v>21887.52807129466</v>
       </c>
       <c r="CI2">
-        <v>1833.9501590119</v>
+        <v>22334.34049124364</v>
       </c>
       <c r="CJ2">
-        <v>1955.244451518878</v>
+        <v>22760.62115057281</v>
       </c>
       <c r="CK2">
-        <v>2009.650164119106</v>
+        <v>22704.01437068727</v>
       </c>
       <c r="CL2">
-        <v>2040.302540032551</v>
+        <v>22874.45487383056</v>
       </c>
       <c r="CM2">
-        <v>2042.405081514594</v>
+        <v>22837.6373309963</v>
       </c>
       <c r="CN2">
-        <v>2031.73849996349</v>
+        <v>22629.20921218659</v>
       </c>
       <c r="CO2">
-        <v>2015.949611152944</v>
+        <v>22314.87717433212</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49072149393767</v>
+        <v>70.90986674581129</v>
       </c>
       <c r="E3">
-        <v>24.70205601916437</v>
+        <v>92.69577989651185</v>
       </c>
       <c r="F3">
-        <v>42.41225800778655</v>
+        <v>92.53143555583677</v>
       </c>
       <c r="G3">
-        <v>30.64991368729514</v>
+        <v>87.86447394665797</v>
       </c>
       <c r="H3">
-        <v>83.24216888087521</v>
+        <v>118.3849281223296</v>
       </c>
       <c r="I3">
-        <v>46.64004008019516</v>
+        <v>85.06207674038733</v>
       </c>
       <c r="J3">
-        <v>52.1854597601006</v>
+        <v>154.7765219514088</v>
       </c>
       <c r="K3">
-        <v>60.14735782660048</v>
+        <v>153.7091102740597</v>
       </c>
       <c r="L3">
-        <v>47.29535793388923</v>
+        <v>136.652725353146</v>
       </c>
       <c r="M3">
-        <v>58.60141410435924</v>
+        <v>125.7674442217332</v>
       </c>
       <c r="N3">
-        <v>27.75565115820464</v>
+        <v>270.6654012423808</v>
       </c>
       <c r="O3">
-        <v>31.63872826182701</v>
+        <v>163.8103713536561</v>
       </c>
       <c r="P3">
-        <v>66.88299399194936</v>
+        <v>329.6558393883638</v>
       </c>
       <c r="Q3">
-        <v>68.03250671349244</v>
+        <v>355.8303358391542</v>
       </c>
       <c r="R3">
-        <v>69.22867470314249</v>
+        <v>382.30532425589</v>
       </c>
       <c r="S3">
-        <v>176.5203271210686</v>
+        <v>837.6798393685652</v>
       </c>
       <c r="T3">
-        <v>176.0363375149142</v>
+        <v>896.9668757765348</v>
       </c>
       <c r="U3">
-        <v>176.2492745582033</v>
+        <v>956.8624193254516</v>
       </c>
       <c r="V3">
-        <v>177.3118452485647</v>
+        <v>1017.778051716431</v>
       </c>
       <c r="W3">
-        <v>178.4725935614753</v>
+        <v>1079.505984192194</v>
       </c>
       <c r="X3">
-        <v>164.2016291922633</v>
+        <v>1084.27346973702</v>
       </c>
       <c r="Y3">
-        <v>165.8516288516593</v>
+        <v>1143.281733801687</v>
       </c>
       <c r="Z3">
-        <v>167.0972808688515</v>
+        <v>1202.7280955797</v>
       </c>
       <c r="AA3">
-        <v>168.5788792779612</v>
+        <v>1263.291549436531</v>
       </c>
       <c r="AB3">
-        <v>172.6425325071764</v>
+        <v>1325.398609217659</v>
       </c>
       <c r="AC3">
-        <v>57.11260305075369</v>
+        <v>615.3678590676258</v>
       </c>
       <c r="AD3">
-        <v>64.45987324643085</v>
+        <v>631.6806190848989</v>
       </c>
       <c r="AE3">
-        <v>71.58311580963743</v>
+        <v>652.3445540102477</v>
       </c>
       <c r="AF3">
-        <v>71.04938956486832</v>
+        <v>672.4325331860612</v>
       </c>
       <c r="AG3">
-        <v>68.50250297906048</v>
+        <v>695.7898030617662</v>
       </c>
       <c r="AH3">
-        <v>51.46460678440921</v>
+        <v>440.3288517099459</v>
       </c>
       <c r="AI3">
-        <v>49.92285542754843</v>
+        <v>443.7208861246826</v>
       </c>
       <c r="AJ3">
-        <v>47.92604955079124</v>
+        <v>462.9876129368872</v>
       </c>
       <c r="AK3">
-        <v>46.65309960417044</v>
+        <v>497.8123912839052</v>
       </c>
       <c r="AL3">
-        <v>52.66426544544308</v>
+        <v>531.8087544208166</v>
       </c>
       <c r="AM3">
-        <v>65.96829828400057</v>
+        <v>706.1396016741722</v>
       </c>
       <c r="AN3">
-        <v>80.61621072285358</v>
+        <v>789.1416719379566</v>
       </c>
       <c r="AO3">
-        <v>101.3575436815399</v>
+        <v>903.8538026029448</v>
       </c>
       <c r="AP3">
-        <v>127.9041120557091</v>
+        <v>1051.495891453404</v>
       </c>
       <c r="AQ3">
-        <v>141.6607833188789</v>
+        <v>1157.237270262511</v>
       </c>
       <c r="AR3">
-        <v>143.2520585847164</v>
+        <v>1438.354033136268</v>
       </c>
       <c r="AS3">
-        <v>143.3149236487695</v>
+        <v>1496.920607470814</v>
       </c>
       <c r="AT3">
-        <v>141.9242542470607</v>
+        <v>1545.330095077714</v>
       </c>
       <c r="AU3">
-        <v>139.2962700501411</v>
+        <v>1583.934829089135</v>
       </c>
       <c r="AV3">
-        <v>138.6585477669874</v>
+        <v>1622.129682737763</v>
       </c>
       <c r="AW3">
-        <v>136.9070403698528</v>
+        <v>1698.078127856742</v>
       </c>
       <c r="AX3">
-        <v>149.0757902820984</v>
+        <v>1678.873642923238</v>
       </c>
       <c r="AY3">
-        <v>131.6056805094848</v>
+        <v>1574.248639472273</v>
       </c>
       <c r="AZ3">
-        <v>107.6632489018068</v>
+        <v>1407.871862315804</v>
       </c>
       <c r="BA3">
-        <v>97.46664934384164</v>
+        <v>1324.527852777196</v>
       </c>
       <c r="BB3">
-        <v>96.2611139120874</v>
+        <v>1261.954500414025</v>
       </c>
       <c r="BC3">
-        <v>94.79981445004003</v>
+        <v>1250.861763878995</v>
       </c>
       <c r="BD3">
-        <v>90.2056702173827</v>
+        <v>1212.050777091619</v>
       </c>
       <c r="BE3">
-        <v>84.7755041970741</v>
+        <v>1155.48533812961</v>
       </c>
       <c r="BF3">
-        <v>81.66603820382967</v>
+        <v>1135.638607014351</v>
       </c>
       <c r="BG3">
-        <v>79.21491929889497</v>
+        <v>1114.979269079676</v>
       </c>
       <c r="BH3">
-        <v>82.48784666327796</v>
+        <v>1157.411563168801</v>
       </c>
       <c r="BI3">
-        <v>90.85938698998091</v>
+        <v>1222.765603236439</v>
       </c>
       <c r="BJ3">
-        <v>104.2668650220973</v>
+        <v>1311.638712342281</v>
       </c>
       <c r="BK3">
-        <v>121.1134023872269</v>
+        <v>1406.663874887312</v>
       </c>
       <c r="BL3">
-        <v>138.0534046090905</v>
+        <v>1481.504483723188</v>
       </c>
       <c r="BM3">
-        <v>155.0528060505283</v>
+        <v>1588.530814417065</v>
       </c>
       <c r="BN3">
-        <v>165.2861274309785</v>
+        <v>1695.144494531298</v>
       </c>
       <c r="BO3">
-        <v>168.4591778197469</v>
+        <v>1790.732346926643</v>
       </c>
       <c r="BP3">
-        <v>168.3102409281498</v>
+        <v>1848.622487861872</v>
       </c>
       <c r="BQ3">
-        <v>165.86574921213</v>
+        <v>1863.250594581755</v>
       </c>
       <c r="BR3">
-        <v>164.2840388707118</v>
+        <v>1881.491903272406</v>
       </c>
       <c r="BS3">
-        <v>162.7172637700367</v>
+        <v>1891.204698988035</v>
       </c>
       <c r="BT3">
-        <v>160.5004154070584</v>
+        <v>1881.489122523795</v>
       </c>
       <c r="BU3">
-        <v>154.9991332557045</v>
+        <v>1834.783082636707</v>
       </c>
       <c r="BV3">
-        <v>141.8027459987103</v>
+        <v>1738.896739940083</v>
       </c>
       <c r="BW3">
-        <v>127.9993394032939</v>
+        <v>1652.258519722116</v>
       </c>
       <c r="BX3">
-        <v>119.7560790330921</v>
+        <v>1587.71131588768</v>
       </c>
       <c r="BY3">
-        <v>116.6192675868305</v>
+        <v>1546.144077395769</v>
       </c>
       <c r="BZ3">
-        <v>114.238385640843</v>
+        <v>1513.647976083578</v>
       </c>
       <c r="CA3">
-        <v>109.6184810105275</v>
+        <v>1466.442797498527</v>
       </c>
       <c r="CB3">
-        <v>106.4388184151314</v>
+        <v>1434.886148317351</v>
       </c>
       <c r="CC3">
-        <v>105.0975910654296</v>
+        <v>1415.604118767551</v>
       </c>
       <c r="CD3">
-        <v>106.785008591658</v>
+        <v>1412.494661469573</v>
       </c>
       <c r="CE3">
-        <v>112.5470808649913</v>
+        <v>1425.75539417064</v>
       </c>
       <c r="CF3">
-        <v>121.2853827581495</v>
+        <v>1433.442539032176</v>
       </c>
       <c r="CG3">
-        <v>135.018565583523</v>
+        <v>1463.499722429238</v>
       </c>
       <c r="CH3">
-        <v>150.5940245082523</v>
+        <v>1493.700689085644</v>
       </c>
       <c r="CI3">
-        <v>165.7374863760247</v>
+        <v>1521.771961136941</v>
       </c>
       <c r="CJ3">
-        <v>178.0616767455575</v>
+        <v>1547.802349021949</v>
       </c>
       <c r="CK3">
-        <v>183.6726690826091</v>
+        <v>1540.544388046788</v>
       </c>
       <c r="CL3">
-        <v>186.492124151362</v>
+        <v>1547.534638120952</v>
       </c>
       <c r="CM3">
-        <v>186.3253078624302</v>
+        <v>1539.719387712779</v>
       </c>
       <c r="CN3">
-        <v>184.8241781632223</v>
+        <v>1519.790447505219</v>
       </c>
       <c r="CO3">
-        <v>182.7899308474274</v>
+        <v>1492.42635566679</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474423.41399472</v>
+        <v>1624090.537329962</v>
       </c>
       <c r="E4">
-        <v>26423782.0299938</v>
+        <v>1458823.298962824</v>
       </c>
       <c r="F4">
-        <v>29154617.2257522</v>
+        <v>1273536.948864026</v>
       </c>
       <c r="G4">
-        <v>29290478.66570861</v>
+        <v>1477258.372532633</v>
       </c>
       <c r="H4">
-        <v>26636694.33104681</v>
+        <v>1623358.757813651</v>
       </c>
       <c r="I4">
-        <v>26167015.38313543</v>
+        <v>1542872.897228797</v>
       </c>
       <c r="J4">
-        <v>28880649.56901433</v>
+        <v>1677419.056944033</v>
       </c>
       <c r="K4">
-        <v>32705397.34632547</v>
+        <v>1538620.78706379</v>
       </c>
       <c r="L4">
-        <v>32436010.50769432</v>
+        <v>1528306.434827912</v>
       </c>
       <c r="M4">
-        <v>34532821.125432</v>
+        <v>2038421.069231238</v>
       </c>
       <c r="N4">
-        <v>37366962.56360873</v>
+        <v>1934408.236466115</v>
       </c>
       <c r="O4">
-        <v>34602267.46176718</v>
+        <v>1916153.126861282</v>
       </c>
       <c r="P4">
-        <v>37520265.96709324</v>
+        <v>9931577.840286806</v>
       </c>
       <c r="Q4">
-        <v>38833459.31288232</v>
+        <v>9980576.178364078</v>
       </c>
       <c r="R4">
-        <v>40142719.94200177</v>
+        <v>10017857.56535136</v>
       </c>
       <c r="S4">
-        <v>43493737.9458889</v>
+        <v>31271951.60276078</v>
       </c>
       <c r="T4">
-        <v>44933917.17656441</v>
+        <v>31332043.99288309</v>
       </c>
       <c r="U4">
-        <v>46375569.00351556</v>
+        <v>31401086.93898667</v>
       </c>
       <c r="V4">
-        <v>47817680.74749114</v>
+        <v>31477507.763804</v>
       </c>
       <c r="W4">
-        <v>49259609.28243396</v>
+        <v>31559587.01040035</v>
       </c>
       <c r="X4">
-        <v>50431031.18013706</v>
+        <v>32493990.78913945</v>
       </c>
       <c r="Y4">
-        <v>51777831.58459719</v>
+        <v>32584591.90452677</v>
       </c>
       <c r="Z4">
-        <v>53122941.72543871</v>
+        <v>32669656.53067218</v>
       </c>
       <c r="AA4">
-        <v>54467730.02934173</v>
+        <v>32758901.60469553</v>
       </c>
       <c r="AB4">
-        <v>55814168.28221639</v>
+        <v>32853346.71965133</v>
       </c>
       <c r="AC4">
-        <v>54949129.6070262</v>
+        <v>8868000.602028761</v>
       </c>
       <c r="AD4">
-        <v>56302073.86332506</v>
+        <v>8969076.599455178</v>
       </c>
       <c r="AE4">
-        <v>57655672.86620741</v>
+        <v>9083249.019078683</v>
       </c>
       <c r="AF4">
-        <v>59006873.51590109</v>
+        <v>9177959.704221617</v>
       </c>
       <c r="AG4">
-        <v>60357502.43250058</v>
+        <v>9296279.687398314</v>
       </c>
       <c r="AH4">
-        <v>61349041.64070459</v>
+        <v>1872508.680616354</v>
       </c>
       <c r="AI4">
-        <v>62730310.9569722</v>
+        <v>1885949.94600336</v>
       </c>
       <c r="AJ4">
-        <v>64118456.70136502</v>
+        <v>2000236.280973549</v>
       </c>
       <c r="AK4">
-        <v>65517435.27238589</v>
+        <v>2233395.423890421</v>
       </c>
       <c r="AL4">
-        <v>66932491.12857161</v>
+        <v>2521038.617296145</v>
       </c>
       <c r="AM4">
-        <v>68333656.77569991</v>
+        <v>6325545.98067897</v>
       </c>
       <c r="AN4">
-        <v>69740484.13357078</v>
+        <v>6882438.028535763</v>
       </c>
       <c r="AO4">
-        <v>71165964.8666081</v>
+        <v>7525308.03635591</v>
       </c>
       <c r="AP4">
-        <v>72607959.37959598</v>
+        <v>8248547.878620308</v>
       </c>
       <c r="AQ4">
-        <v>74011865.20635496</v>
+        <v>8722608.497929221</v>
       </c>
       <c r="AR4">
-        <v>75363295.45101087</v>
+        <v>13962344.42855882</v>
       </c>
       <c r="AS4">
-        <v>76706019.21553788</v>
+        <v>14094199.98826819</v>
       </c>
       <c r="AT4">
-        <v>78039537.05715162</v>
+        <v>14126136.43861401</v>
       </c>
       <c r="AU4">
-        <v>79364023.66155474</v>
+        <v>14056936.17833431</v>
       </c>
       <c r="AV4">
-        <v>80885903.25587113</v>
+        <v>13918932.55971486</v>
       </c>
       <c r="AW4">
-        <v>82344779.23134568</v>
+        <v>15028803.26353497</v>
       </c>
       <c r="AX4">
-        <v>83833893.45502895</v>
+        <v>14634289.18927963</v>
       </c>
       <c r="AY4">
-        <v>85175470.74618909</v>
+        <v>14012056.48948435</v>
       </c>
       <c r="AZ4">
-        <v>86492468.85835758</v>
+        <v>13255419.82861272</v>
       </c>
       <c r="BA4">
-        <v>87848991.69476506</v>
+        <v>12725721.78666793</v>
       </c>
       <c r="BB4">
-        <v>89290078.88990031</v>
+        <v>11466965.100356</v>
       </c>
       <c r="BC4">
-        <v>90773869.04188839</v>
+        <v>11166952.00512005</v>
       </c>
       <c r="BD4">
-        <v>92255057.21229304</v>
+        <v>10899194.99650534</v>
       </c>
       <c r="BE4">
-        <v>93738391.81354722</v>
+        <v>10722124.98141503</v>
       </c>
       <c r="BF4">
-        <v>95235545.72407563</v>
+        <v>10581088.10110796</v>
       </c>
       <c r="BG4">
-        <v>96783545.58398399</v>
+        <v>9950915.241330264</v>
       </c>
       <c r="BH4">
-        <v>98386885.88342665</v>
+        <v>9913797.88027928</v>
       </c>
       <c r="BI4">
-        <v>100004664.4094097</v>
+        <v>10041183.72561813</v>
       </c>
       <c r="BJ4">
-        <v>101635351.1832751</v>
+        <v>10267452.60958889</v>
       </c>
       <c r="BK4">
-        <v>103276441.9154355</v>
+        <v>10524035.01862818</v>
       </c>
       <c r="BL4">
-        <v>104943605.2919007</v>
+        <v>10660209.52604387</v>
       </c>
       <c r="BM4">
-        <v>106637529.4714956</v>
+        <v>10908159.2057498</v>
       </c>
       <c r="BN4">
-        <v>108311674.7056603</v>
+        <v>11095506.86927688</v>
       </c>
       <c r="BO4">
-        <v>109964358.0591181</v>
+        <v>11203506.94870168</v>
       </c>
       <c r="BP4">
-        <v>111605697.4669261</v>
+        <v>11213735.36242617</v>
       </c>
       <c r="BQ4">
-        <v>113328768.7453722</v>
+        <v>11134884.11531919</v>
       </c>
       <c r="BR4">
-        <v>115069778.2728084</v>
+        <v>11042985.93664626</v>
       </c>
       <c r="BS4">
-        <v>116807477.4536111</v>
+        <v>10921177.01118032</v>
       </c>
       <c r="BT4">
-        <v>118539057.4052543</v>
+        <v>10750958.1690381</v>
       </c>
       <c r="BU4">
-        <v>120256207.1377334</v>
+        <v>10505537.80874278</v>
       </c>
       <c r="BV4">
-        <v>122007095.6120871</v>
+        <v>10055865.19746361</v>
       </c>
       <c r="BW4">
-        <v>123771259.7588184</v>
+        <v>9751472.353767792</v>
       </c>
       <c r="BX4">
-        <v>125552118.4785397</v>
+        <v>9583530.61716588</v>
       </c>
       <c r="BY4">
-        <v>127351061.2562824</v>
+        <v>9539718.743641514</v>
       </c>
       <c r="BZ4">
-        <v>129156391.7103132</v>
+        <v>9462097.795091163</v>
       </c>
       <c r="CA4">
-        <v>131025169.1174473</v>
+        <v>9163208.330991939</v>
       </c>
       <c r="CB4">
-        <v>132919486.3376572</v>
+        <v>9068996.126799932</v>
       </c>
       <c r="CC4">
-        <v>134822069.0648259</v>
+        <v>8974341.479842296</v>
       </c>
       <c r="CD4">
-        <v>136735838.8032797</v>
+        <v>8872562.271437369</v>
       </c>
       <c r="CE4">
-        <v>138662016.20966</v>
+        <v>8737455.939955814</v>
       </c>
       <c r="CF4">
-        <v>140664573.8635113</v>
+        <v>8383700.065991697</v>
       </c>
       <c r="CG4">
-        <v>142701325.69033</v>
+        <v>8481221.191894155</v>
       </c>
       <c r="CH4">
-        <v>144743350.8967337</v>
+        <v>8593735.843349745</v>
       </c>
       <c r="CI4">
-        <v>146784908.5244934</v>
+        <v>8704783.50630963</v>
       </c>
       <c r="CJ4">
-        <v>148819066.9077824</v>
+        <v>8802205.565670723</v>
       </c>
       <c r="CK4">
-        <v>150889587.6146353</v>
+        <v>8303879.729188799</v>
       </c>
       <c r="CL4">
-        <v>152980379.2006584</v>
+        <v>8334686.168808976</v>
       </c>
       <c r="CM4">
-        <v>155061788.1098134</v>
+        <v>8329755.543570788</v>
       </c>
       <c r="CN4">
-        <v>157138114.7855025</v>
+        <v>8300878.733820316</v>
       </c>
       <c r="CO4">
-        <v>159211148.4199523</v>
+        <v>8259754.15270919</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694853.666359797</v>
+        <v>2149741.752917891</v>
       </c>
       <c r="E5">
-        <v>1137537.00413402</v>
+        <v>1439679.414002341</v>
       </c>
       <c r="F5">
-        <v>570319.2085107528</v>
+        <v>1345818.204103041</v>
       </c>
       <c r="G5">
-        <v>350767.4870431119</v>
+        <v>1297234.071478467</v>
       </c>
       <c r="H5">
-        <v>328994.2000082306</v>
+        <v>1244834.330190728</v>
       </c>
       <c r="I5">
-        <v>233967.6205586491</v>
+        <v>1555389.286635582</v>
       </c>
       <c r="J5">
-        <v>192320.9578827837</v>
+        <v>1711377.353521905</v>
       </c>
       <c r="K5">
-        <v>249043.7758235827</v>
+        <v>1489426.94034161</v>
       </c>
       <c r="L5">
-        <v>451143.5503042915</v>
+        <v>1378420.280851263</v>
       </c>
       <c r="M5">
-        <v>397599.4681143104</v>
+        <v>1542529.424435778</v>
       </c>
       <c r="N5">
-        <v>502467.4282519035</v>
+        <v>1621887.367372605</v>
       </c>
       <c r="O5">
-        <v>630349.8072414988</v>
+        <v>2112184.618362186</v>
       </c>
       <c r="P5">
-        <v>4061657.595818497</v>
+        <v>16307854.80029605</v>
       </c>
       <c r="Q5">
-        <v>4075265.556145017</v>
+        <v>16331657.75503089</v>
       </c>
       <c r="R5">
-        <v>4092031.571327148</v>
+        <v>16360958.18285075</v>
       </c>
       <c r="S5">
-        <v>12921764.16136973</v>
+        <v>54198402.91287233</v>
       </c>
       <c r="T5">
-        <v>12945436.16197266</v>
+        <v>54240666.16219526</v>
       </c>
       <c r="U5">
-        <v>12972543.94009941</v>
+        <v>54290539.65212024</v>
       </c>
       <c r="V5">
-        <v>13002861.48437361</v>
+        <v>54349233.5643505</v>
       </c>
       <c r="W5">
-        <v>13036033.10370639</v>
+        <v>54418713.66611662</v>
       </c>
       <c r="X5">
-        <v>12491638.41147617</v>
+        <v>57299340.76874523</v>
       </c>
       <c r="Y5">
-        <v>12529412.02053753</v>
+        <v>57399111.11943649</v>
       </c>
       <c r="Z5">
-        <v>12569335.64749284</v>
+        <v>57521393.7795723</v>
       </c>
       <c r="AA5">
-        <v>12612024.97401867</v>
+        <v>57674097.93451735</v>
       </c>
       <c r="AB5">
-        <v>12659067.29242293</v>
+        <v>57867987.70623051</v>
       </c>
       <c r="AC5">
-        <v>2422929.636760343</v>
+        <v>16399521.05812721</v>
       </c>
       <c r="AD5">
-        <v>2489222.867308591</v>
+        <v>16721972.48446367</v>
       </c>
       <c r="AE5">
-        <v>2573991.510496122</v>
+        <v>17139316.3195844</v>
       </c>
       <c r="AF5">
-        <v>2685549.71101363</v>
+        <v>17676408.97639388</v>
       </c>
       <c r="AG5">
-        <v>2833529.61479817</v>
+        <v>18359924.26098314</v>
       </c>
       <c r="AH5">
-        <v>1081495.953318998</v>
+        <v>5239858.942226764</v>
       </c>
       <c r="AI5">
-        <v>1331905.097865971</v>
+        <v>6095325.627603126</v>
       </c>
       <c r="AJ5">
-        <v>1645546.592290143</v>
+        <v>7120864.818704961</v>
       </c>
       <c r="AK5">
-        <v>2026310.526413597</v>
+        <v>8577573.55477065</v>
       </c>
       <c r="AL5">
-        <v>2473429.278897233</v>
+        <v>10256587.09549373</v>
       </c>
       <c r="AM5">
-        <v>2980526.623098765</v>
+        <v>18010116.98097451</v>
       </c>
       <c r="AN5">
-        <v>3535026.178931032</v>
+        <v>19974163.09931798</v>
       </c>
       <c r="AO5">
-        <v>4118046.25373644</v>
+        <v>21975821.22654326</v>
       </c>
       <c r="AP5">
-        <v>4704870.145204098</v>
+        <v>23917400.70850852</v>
       </c>
       <c r="AQ5">
-        <v>5266186.425529318</v>
+        <v>25687326.21497723</v>
       </c>
       <c r="AR5">
-        <v>5770254.014597955</v>
+        <v>35384724.82605056</v>
       </c>
       <c r="AS5">
-        <v>6185798.287972575</v>
+        <v>36513893.18548128</v>
       </c>
       <c r="AT5">
-        <v>6485447.903601795</v>
+        <v>37200635.79858019</v>
       </c>
       <c r="AU5">
-        <v>6649137.082249656</v>
+        <v>37398493.36800219</v>
       </c>
       <c r="AV5">
-        <v>7979651.883349239</v>
+        <v>37098449.79749824</v>
       </c>
       <c r="AW5">
-        <v>8224337.655257856</v>
+        <v>38729556.27689035</v>
       </c>
       <c r="AX5">
-        <v>7966101.696325384</v>
+        <v>37558839.95958708</v>
       </c>
       <c r="AY5">
-        <v>7599384.28706058</v>
+        <v>36077832.50925365</v>
       </c>
       <c r="AZ5">
-        <v>7154720.726236111</v>
+        <v>34396059.40103392</v>
       </c>
       <c r="BA5">
-        <v>6667172.958460058</v>
+        <v>32629553.72705801</v>
       </c>
       <c r="BB5">
-        <v>5982622.903000416</v>
+        <v>29494473.98741886</v>
       </c>
       <c r="BC5">
-        <v>5518047.006491533</v>
+        <v>27886390.36013108</v>
       </c>
       <c r="BD5">
-        <v>5114562.586303042</v>
+        <v>26492810.18654575</v>
       </c>
       <c r="BE5">
-        <v>4798073.486870514</v>
+        <v>25374900.49023435</v>
       </c>
       <c r="BF5">
-        <v>4586432.682588495</v>
+        <v>24566599.28201307</v>
       </c>
       <c r="BG5">
-        <v>4299892.884257033</v>
+        <v>23302101.2993935</v>
       </c>
       <c r="BH5">
-        <v>4313549.519015328</v>
+        <v>23101866.16548532</v>
       </c>
       <c r="BI5">
-        <v>4429556.172493103</v>
+        <v>23151611.11818291</v>
       </c>
       <c r="BJ5">
-        <v>4632116.62224794</v>
+        <v>23393716.15656408</v>
       </c>
       <c r="BK5">
-        <v>4902048.816787535</v>
+        <v>23763672.09206195</v>
       </c>
       <c r="BL5">
-        <v>5077652.528846424</v>
+        <v>24090979.92359535</v>
       </c>
       <c r="BM5">
-        <v>5422243.925262474</v>
+        <v>24525071.5515656</v>
       </c>
       <c r="BN5">
-        <v>5775857.863714319</v>
+        <v>24906056.18574117</v>
       </c>
       <c r="BO5">
-        <v>6121527.976835415</v>
+        <v>25188512.43886217</v>
       </c>
       <c r="BP5">
-        <v>6443948.312008162</v>
+        <v>25337906.2008082</v>
       </c>
       <c r="BQ5">
-        <v>6631056.307140354</v>
+        <v>25356014.39855516</v>
       </c>
       <c r="BR5">
-        <v>6869109.37616566</v>
+        <v>25184604.51297561</v>
       </c>
       <c r="BS5">
-        <v>7050921.587838116</v>
+        <v>24849751.75030263</v>
       </c>
       <c r="BT5">
-        <v>7170903.407787723</v>
+        <v>24363699.17344862</v>
       </c>
       <c r="BU5">
-        <v>7226611.951786896</v>
+        <v>23746910.34396751</v>
       </c>
       <c r="BV5">
-        <v>7122660.603254576</v>
+        <v>22806094.91662557</v>
       </c>
       <c r="BW5">
-        <v>7056053.929682771</v>
+        <v>22009873.67381899</v>
       </c>
       <c r="BX5">
-        <v>6938379.616132872</v>
+        <v>21168654.41511236</v>
       </c>
       <c r="BY5">
-        <v>6780772.748904529</v>
+        <v>20310390.7187927</v>
       </c>
       <c r="BZ5">
-        <v>6597047.537540265</v>
+        <v>19458779.07802334</v>
       </c>
       <c r="CA5">
-        <v>6301679.215876132</v>
+        <v>18240753.5139134</v>
       </c>
       <c r="CB5">
-        <v>6112936.158551932</v>
+        <v>17449122.71062851</v>
       </c>
       <c r="CC5">
-        <v>5944868.826641146</v>
+        <v>16696778.67440918</v>
       </c>
       <c r="CD5">
-        <v>5810361.838374109</v>
+        <v>15980777.91661348</v>
       </c>
       <c r="CE5">
-        <v>5718966.843058071</v>
+        <v>15292369.58337311</v>
       </c>
       <c r="CF5">
-        <v>5562292.717930341</v>
+        <v>13947979.5314836</v>
       </c>
       <c r="CG5">
-        <v>5569919.749738217</v>
+        <v>13272854.77308265</v>
       </c>
       <c r="CH5">
-        <v>5625639.109688874</v>
+        <v>12580000.63946584</v>
       </c>
       <c r="CI5">
-        <v>5724104.878779114</v>
+        <v>11853987.81269562</v>
       </c>
       <c r="CJ5">
-        <v>5857554.024342485</v>
+        <v>11081962.09456884</v>
       </c>
       <c r="CK5">
-        <v>5860776.778941198</v>
+        <v>9202448.305922108</v>
       </c>
       <c r="CL5">
-        <v>6035177.383029466</v>
+        <v>8315501.37907455</v>
       </c>
       <c r="CM5">
-        <v>6214534.814539092</v>
+        <v>7368753.94848448</v>
       </c>
       <c r="CN5">
-        <v>6388963.100683393</v>
+        <v>6366752.260673669</v>
       </c>
       <c r="CO5">
-        <v>6549611.745031223</v>
+        <v>5317971.584666347</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1072.353295692877</v>
+      </c>
+      <c r="E2">
+        <v>2469.945846677264</v>
+      </c>
+      <c r="F2">
+        <v>3866.85234545715</v>
+      </c>
+      <c r="G2">
+        <v>5194.28870039405</v>
+      </c>
+      <c r="H2">
+        <v>6974.685402422479</v>
+      </c>
+      <c r="I2">
+        <v>8259.113854798165</v>
+      </c>
+      <c r="J2">
+        <v>10583.19521345396</v>
+      </c>
+      <c r="K2">
+        <v>12893.65018086489</v>
+      </c>
+      <c r="L2">
+        <v>14949.47695446425</v>
+      </c>
+      <c r="M2">
+        <v>16844.38229612978</v>
+      </c>
+      <c r="N2">
+        <v>20897.987938082</v>
+      </c>
+      <c r="O2">
+        <v>23358.57051525402</v>
+      </c>
+      <c r="P2">
+        <v>28290.22427334399</v>
+      </c>
+      <c r="Q2">
+        <v>33612.25105347911</v>
+      </c>
+      <c r="R2">
+        <v>39329.08034489261</v>
+      </c>
+      <c r="S2">
+        <v>51828.81817100455</v>
+      </c>
+      <c r="T2">
+        <v>65211.97404411793</v>
+      </c>
+      <c r="U2">
+        <v>79487.59990280683</v>
+      </c>
+      <c r="V2">
+        <v>94670.85402966381</v>
+      </c>
+      <c r="W2">
+        <v>110773.6048615979</v>
+      </c>
+      <c r="X2">
+        <v>126947.3880933487</v>
+      </c>
+      <c r="Y2">
+        <v>143999.2374045723</v>
+      </c>
+      <c r="Z2">
+        <v>161935.2002132848</v>
+      </c>
+      <c r="AA2">
+        <v>180771.3278343926</v>
+      </c>
+      <c r="AB2">
+        <v>200529.8755526038</v>
+      </c>
+      <c r="AC2">
+        <v>209712.3197182478</v>
+      </c>
+      <c r="AD2">
+        <v>219134.9069361377</v>
+      </c>
+      <c r="AE2">
+        <v>228860.7750249235</v>
+      </c>
+      <c r="AF2">
+        <v>238881.2740274668</v>
+      </c>
+      <c r="AG2">
+        <v>249243.6364409786</v>
+      </c>
+      <c r="AH2">
+        <v>255797.5045927123</v>
+      </c>
+      <c r="AI2">
+        <v>262398.099883216</v>
+      </c>
+      <c r="AJ2">
+        <v>269274.4533289123</v>
+      </c>
+      <c r="AK2">
+        <v>276650.1289110181</v>
+      </c>
+      <c r="AL2">
+        <v>284511.6075524522</v>
+      </c>
+      <c r="AM2">
+        <v>294935.6624678333</v>
+      </c>
+      <c r="AN2">
+        <v>306544.7159949827</v>
+      </c>
+      <c r="AO2">
+        <v>319784.8516486866</v>
+      </c>
+      <c r="AP2">
+        <v>335113.8635256569</v>
+      </c>
+      <c r="AQ2">
+        <v>351921.0837213017</v>
+      </c>
+      <c r="AR2">
+        <v>372842.1573492051</v>
+      </c>
+      <c r="AS2">
+        <v>394566.8282079572</v>
+      </c>
+      <c r="AT2">
+        <v>416949.4056216344</v>
+      </c>
+      <c r="AU2">
+        <v>439850.2188438796</v>
+      </c>
+      <c r="AV2">
+        <v>463261.6786848657</v>
+      </c>
+      <c r="AW2">
+        <v>487755.9792151799</v>
+      </c>
+      <c r="AX2">
+        <v>511962.4201005841</v>
+      </c>
+      <c r="AY2">
+        <v>534699.7519421127</v>
+      </c>
+      <c r="AZ2">
+        <v>555121.4314474466</v>
+      </c>
+      <c r="BA2">
+        <v>574383.1172438655</v>
+      </c>
+      <c r="BB2">
+        <v>592708.0429115541</v>
+      </c>
+      <c r="BC2">
+        <v>610873.0716270764</v>
+      </c>
+      <c r="BD2">
+        <v>628500.0987548784</v>
+      </c>
+      <c r="BE2">
+        <v>645349.6105751559</v>
+      </c>
+      <c r="BF2">
+        <v>661929.0547517523</v>
+      </c>
+      <c r="BG2">
+        <v>678177.4930022026</v>
+      </c>
+      <c r="BH2">
+        <v>695011.9821582487</v>
+      </c>
+      <c r="BI2">
+        <v>712747.6504294226</v>
+      </c>
+      <c r="BJ2">
+        <v>731707.1868238093</v>
+      </c>
+      <c r="BK2">
+        <v>751975.8805556658</v>
+      </c>
+      <c r="BL2">
+        <v>773249.0403483581</v>
+      </c>
+      <c r="BM2">
+        <v>795996.8727760596</v>
+      </c>
+      <c r="BN2">
+        <v>820215.1131009182</v>
+      </c>
+      <c r="BO2">
+        <v>845754.9213898637</v>
+      </c>
+      <c r="BP2">
+        <v>872103.8516248233</v>
+      </c>
+      <c r="BQ2">
+        <v>898657.519544091</v>
+      </c>
+      <c r="BR2">
+        <v>925481.6215260397</v>
+      </c>
+      <c r="BS2">
+        <v>952460.5844873313</v>
+      </c>
+      <c r="BT2">
+        <v>979329.5917532905</v>
+      </c>
+      <c r="BU2">
+        <v>1005582.850463208</v>
+      </c>
+      <c r="BV2">
+        <v>1030527.795894271</v>
+      </c>
+      <c r="BW2">
+        <v>1054306.786316868</v>
+      </c>
+      <c r="BX2">
+        <v>1077220.800805894</v>
+      </c>
+      <c r="BY2">
+        <v>1099584.311011298</v>
+      </c>
+      <c r="BZ2">
+        <v>1121521.647964279</v>
+      </c>
+      <c r="CA2">
+        <v>1142814.563445559</v>
+      </c>
+      <c r="CB2">
+        <v>1163693.862804321</v>
+      </c>
+      <c r="CC2">
+        <v>1184329.998980889</v>
+      </c>
+      <c r="CD2">
+        <v>1204949.147539855</v>
+      </c>
+      <c r="CE2">
+        <v>1225782.437911331</v>
+      </c>
+      <c r="CF2">
+        <v>1246740.878825248</v>
+      </c>
+      <c r="CG2">
+        <v>1268159.281956421</v>
+      </c>
+      <c r="CH2">
+        <v>1290046.810027716</v>
+      </c>
+      <c r="CI2">
+        <v>1312381.150518959</v>
+      </c>
+      <c r="CJ2">
+        <v>1335141.771669532</v>
+      </c>
+      <c r="CK2">
+        <v>1357845.786040219</v>
+      </c>
+      <c r="CL2">
+        <v>1380720.24091405</v>
+      </c>
+      <c r="CM2">
+        <v>1403557.878245046</v>
+      </c>
+      <c r="CN2">
+        <v>1426187.087457233</v>
+      </c>
+      <c r="CO2">
+        <v>1448501.964631565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>70.90986674581129</v>
+      </c>
+      <c r="E3">
+        <v>163.6056466423231</v>
+      </c>
+      <c r="F3">
+        <v>256.1370821981599</v>
+      </c>
+      <c r="G3">
+        <v>344.0015561448179</v>
+      </c>
+      <c r="H3">
+        <v>462.3864842671474</v>
+      </c>
+      <c r="I3">
+        <v>547.4485610075347</v>
+      </c>
+      <c r="J3">
+        <v>702.2250829589436</v>
+      </c>
+      <c r="K3">
+        <v>855.9341932330033</v>
+      </c>
+      <c r="L3">
+        <v>992.5869185861493</v>
+      </c>
+      <c r="M3">
+        <v>1118.354362807883</v>
+      </c>
+      <c r="N3">
+        <v>1389.019764050263</v>
+      </c>
+      <c r="O3">
+        <v>1552.830135403919</v>
+      </c>
+      <c r="P3">
+        <v>1882.485974792283</v>
+      </c>
+      <c r="Q3">
+        <v>2238.316310631437</v>
+      </c>
+      <c r="R3">
+        <v>2620.621634887327</v>
+      </c>
+      <c r="S3">
+        <v>3458.301474255893</v>
+      </c>
+      <c r="T3">
+        <v>4355.268350032427</v>
+      </c>
+      <c r="U3">
+        <v>5312.130769357879</v>
+      </c>
+      <c r="V3">
+        <v>6329.90882107431</v>
+      </c>
+      <c r="W3">
+        <v>7409.414805266504</v>
+      </c>
+      <c r="X3">
+        <v>8493.688275003524</v>
+      </c>
+      <c r="Y3">
+        <v>9636.97000880521</v>
+      </c>
+      <c r="Z3">
+        <v>10839.69810438491</v>
+      </c>
+      <c r="AA3">
+        <v>12102.98965382144</v>
+      </c>
+      <c r="AB3">
+        <v>13428.3882630391</v>
+      </c>
+      <c r="AC3">
+        <v>14043.75612210673</v>
+      </c>
+      <c r="AD3">
+        <v>14675.43674119163</v>
+      </c>
+      <c r="AE3">
+        <v>15327.78129520187</v>
+      </c>
+      <c r="AF3">
+        <v>16000.21382838794</v>
+      </c>
+      <c r="AG3">
+        <v>16696.0036314497</v>
+      </c>
+      <c r="AH3">
+        <v>17136.33248315965</v>
+      </c>
+      <c r="AI3">
+        <v>17580.05336928433</v>
+      </c>
+      <c r="AJ3">
+        <v>18043.04098222122</v>
+      </c>
+      <c r="AK3">
+        <v>18540.85337350512</v>
+      </c>
+      <c r="AL3">
+        <v>19072.66212792594</v>
+      </c>
+      <c r="AM3">
+        <v>19778.80172960011</v>
+      </c>
+      <c r="AN3">
+        <v>20567.94340153806</v>
+      </c>
+      <c r="AO3">
+        <v>21471.79720414101</v>
+      </c>
+      <c r="AP3">
+        <v>22523.29309559441</v>
+      </c>
+      <c r="AQ3">
+        <v>23680.53036585692</v>
+      </c>
+      <c r="AR3">
+        <v>25118.88439899319</v>
+      </c>
+      <c r="AS3">
+        <v>26615.805006464</v>
+      </c>
+      <c r="AT3">
+        <v>28161.13510154172</v>
+      </c>
+      <c r="AU3">
+        <v>29745.06993063085</v>
+      </c>
+      <c r="AV3">
+        <v>31367.19961336862</v>
+      </c>
+      <c r="AW3">
+        <v>33065.27774122536</v>
+      </c>
+      <c r="AX3">
+        <v>34744.15138414859</v>
+      </c>
+      <c r="AY3">
+        <v>36318.40002362087</v>
+      </c>
+      <c r="AZ3">
+        <v>37726.27188593667</v>
+      </c>
+      <c r="BA3">
+        <v>39050.79973871387</v>
+      </c>
+      <c r="BB3">
+        <v>40312.75423912789</v>
+      </c>
+      <c r="BC3">
+        <v>41563.61600300689</v>
+      </c>
+      <c r="BD3">
+        <v>42775.6667800985</v>
+      </c>
+      <c r="BE3">
+        <v>43931.15211822811</v>
+      </c>
+      <c r="BF3">
+        <v>45066.79072524246</v>
+      </c>
+      <c r="BG3">
+        <v>46181.76999432214</v>
+      </c>
+      <c r="BH3">
+        <v>47339.18155749094</v>
+      </c>
+      <c r="BI3">
+        <v>48561.94716072738</v>
+      </c>
+      <c r="BJ3">
+        <v>49873.58587306966</v>
+      </c>
+      <c r="BK3">
+        <v>51280.24974795697</v>
+      </c>
+      <c r="BL3">
+        <v>52761.75423168016</v>
+      </c>
+      <c r="BM3">
+        <v>54350.28504609723</v>
+      </c>
+      <c r="BN3">
+        <v>56045.42954062852</v>
+      </c>
+      <c r="BO3">
+        <v>57836.16188755516</v>
+      </c>
+      <c r="BP3">
+        <v>59684.78437541704</v>
+      </c>
+      <c r="BQ3">
+        <v>61548.03496999879</v>
+      </c>
+      <c r="BR3">
+        <v>63429.5268732712</v>
+      </c>
+      <c r="BS3">
+        <v>65320.73157225923</v>
+      </c>
+      <c r="BT3">
+        <v>67202.22069478303</v>
+      </c>
+      <c r="BU3">
+        <v>69037.00377741974</v>
+      </c>
+      <c r="BV3">
+        <v>70775.90051735983</v>
+      </c>
+      <c r="BW3">
+        <v>72428.15903708195</v>
+      </c>
+      <c r="BX3">
+        <v>74015.87035296962</v>
+      </c>
+      <c r="BY3">
+        <v>75562.01443036539</v>
+      </c>
+      <c r="BZ3">
+        <v>77075.66240644897</v>
+      </c>
+      <c r="CA3">
+        <v>78542.1052039475</v>
+      </c>
+      <c r="CB3">
+        <v>79976.99135226486</v>
+      </c>
+      <c r="CC3">
+        <v>81392.5954710324</v>
+      </c>
+      <c r="CD3">
+        <v>82805.09013250197</v>
+      </c>
+      <c r="CE3">
+        <v>84230.84552667261</v>
+      </c>
+      <c r="CF3">
+        <v>85664.28806570478</v>
+      </c>
+      <c r="CG3">
+        <v>87127.78778813401</v>
+      </c>
+      <c r="CH3">
+        <v>88621.48847721965</v>
+      </c>
+      <c r="CI3">
+        <v>90143.26043835659</v>
+      </c>
+      <c r="CJ3">
+        <v>91691.06278737854</v>
+      </c>
+      <c r="CK3">
+        <v>93231.60717542534</v>
+      </c>
+      <c r="CL3">
+        <v>94779.14181354629</v>
+      </c>
+      <c r="CM3">
+        <v>96318.86120125906</v>
+      </c>
+      <c r="CN3">
+        <v>97838.65164876428</v>
+      </c>
+      <c r="CO3">
+        <v>99331.07800443107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1624090.537329962</v>
+      </c>
+      <c r="E4">
+        <v>3082913.836292786</v>
+      </c>
+      <c r="F4">
+        <v>4356450.785156812</v>
+      </c>
+      <c r="G4">
+        <v>5833709.157689445</v>
+      </c>
+      <c r="H4">
+        <v>7457067.915503096</v>
+      </c>
+      <c r="I4">
+        <v>8999940.812731894</v>
+      </c>
+      <c r="J4">
+        <v>10677359.86967593</v>
+      </c>
+      <c r="K4">
+        <v>12215980.65673972</v>
+      </c>
+      <c r="L4">
+        <v>13744287.09156763</v>
+      </c>
+      <c r="M4">
+        <v>15782708.16079887</v>
+      </c>
+      <c r="N4">
+        <v>17717116.39726498</v>
+      </c>
+      <c r="O4">
+        <v>19633269.52412627</v>
+      </c>
+      <c r="P4">
+        <v>29564847.36441307</v>
+      </c>
+      <c r="Q4">
+        <v>39545423.54277715</v>
+      </c>
+      <c r="R4">
+        <v>49563281.10812852</v>
+      </c>
+      <c r="S4">
+        <v>80835232.71088929</v>
+      </c>
+      <c r="T4">
+        <v>112167276.7037724</v>
+      </c>
+      <c r="U4">
+        <v>143568363.6427591</v>
+      </c>
+      <c r="V4">
+        <v>175045871.406563</v>
+      </c>
+      <c r="W4">
+        <v>206605458.4169634</v>
+      </c>
+      <c r="X4">
+        <v>239099449.2061028</v>
+      </c>
+      <c r="Y4">
+        <v>271684041.1106296</v>
+      </c>
+      <c r="Z4">
+        <v>304353697.6413018</v>
+      </c>
+      <c r="AA4">
+        <v>337112599.2459973</v>
+      </c>
+      <c r="AB4">
+        <v>369965945.9656487</v>
+      </c>
+      <c r="AC4">
+        <v>378833946.5676774</v>
+      </c>
+      <c r="AD4">
+        <v>387803023.1671326</v>
+      </c>
+      <c r="AE4">
+        <v>396886272.1862113</v>
+      </c>
+      <c r="AF4">
+        <v>406064231.8904329</v>
+      </c>
+      <c r="AG4">
+        <v>415360511.5778312</v>
+      </c>
+      <c r="AH4">
+        <v>417233020.2584476</v>
+      </c>
+      <c r="AI4">
+        <v>419118970.204451</v>
+      </c>
+      <c r="AJ4">
+        <v>421119206.4854245</v>
+      </c>
+      <c r="AK4">
+        <v>423352601.9093149</v>
+      </c>
+      <c r="AL4">
+        <v>425873640.5266111</v>
+      </c>
+      <c r="AM4">
+        <v>432199186.5072901</v>
+      </c>
+      <c r="AN4">
+        <v>439081624.5358258</v>
+      </c>
+      <c r="AO4">
+        <v>446606932.5721818</v>
+      </c>
+      <c r="AP4">
+        <v>454855480.4508021</v>
+      </c>
+      <c r="AQ4">
+        <v>463578088.9487313</v>
+      </c>
+      <c r="AR4">
+        <v>477540433.3772901</v>
+      </c>
+      <c r="AS4">
+        <v>491634633.3655583</v>
+      </c>
+      <c r="AT4">
+        <v>505760769.8041723</v>
+      </c>
+      <c r="AU4">
+        <v>519817705.9825066</v>
+      </c>
+      <c r="AV4">
+        <v>533736638.5422215</v>
+      </c>
+      <c r="AW4">
+        <v>548765441.8057564</v>
+      </c>
+      <c r="AX4">
+        <v>563399730.9950361</v>
+      </c>
+      <c r="AY4">
+        <v>577411787.4845204</v>
+      </c>
+      <c r="AZ4">
+        <v>590667207.3131331</v>
+      </c>
+      <c r="BA4">
+        <v>603392929.0998011</v>
+      </c>
+      <c r="BB4">
+        <v>614859894.200157</v>
+      </c>
+      <c r="BC4">
+        <v>626026846.2052771</v>
+      </c>
+      <c r="BD4">
+        <v>636926041.2017825</v>
+      </c>
+      <c r="BE4">
+        <v>647648166.1831975</v>
+      </c>
+      <c r="BF4">
+        <v>658229254.2843055</v>
+      </c>
+      <c r="BG4">
+        <v>668180169.5256357</v>
+      </c>
+      <c r="BH4">
+        <v>678093967.405915</v>
+      </c>
+      <c r="BI4">
+        <v>688135151.1315331</v>
+      </c>
+      <c r="BJ4">
+        <v>698402603.741122</v>
+      </c>
+      <c r="BK4">
+        <v>708926638.7597502</v>
+      </c>
+      <c r="BL4">
+        <v>719586848.2857941</v>
+      </c>
+      <c r="BM4">
+        <v>730495007.4915439</v>
+      </c>
+      <c r="BN4">
+        <v>741590514.3608208</v>
+      </c>
+      <c r="BO4">
+        <v>752794021.3095225</v>
+      </c>
+      <c r="BP4">
+        <v>764007756.6719487</v>
+      </c>
+      <c r="BQ4">
+        <v>775142640.7872678</v>
+      </c>
+      <c r="BR4">
+        <v>786185626.723914</v>
+      </c>
+      <c r="BS4">
+        <v>797106803.7350943</v>
+      </c>
+      <c r="BT4">
+        <v>807857761.9041324</v>
+      </c>
+      <c r="BU4">
+        <v>818363299.7128751</v>
+      </c>
+      <c r="BV4">
+        <v>828419164.9103388</v>
+      </c>
+      <c r="BW4">
+        <v>838170637.2641065</v>
+      </c>
+      <c r="BX4">
+        <v>847754167.8812724</v>
+      </c>
+      <c r="BY4">
+        <v>857293886.6249139</v>
+      </c>
+      <c r="BZ4">
+        <v>866755984.4200051</v>
+      </c>
+      <c r="CA4">
+        <v>875919192.7509971</v>
+      </c>
+      <c r="CB4">
+        <v>884988188.877797</v>
+      </c>
+      <c r="CC4">
+        <v>893962530.3576393</v>
+      </c>
+      <c r="CD4">
+        <v>902835092.6290767</v>
+      </c>
+      <c r="CE4">
+        <v>911572548.5690325</v>
+      </c>
+      <c r="CF4">
+        <v>919956248.6350242</v>
+      </c>
+      <c r="CG4">
+        <v>928437469.8269184</v>
+      </c>
+      <c r="CH4">
+        <v>937031205.6702681</v>
+      </c>
+      <c r="CI4">
+        <v>945735989.1765777</v>
+      </c>
+      <c r="CJ4">
+        <v>954538194.7422484</v>
+      </c>
+      <c r="CK4">
+        <v>962842074.4714372</v>
+      </c>
+      <c r="CL4">
+        <v>971176760.6402462</v>
+      </c>
+      <c r="CM4">
+        <v>979506516.1838169</v>
+      </c>
+      <c r="CN4">
+        <v>987807394.9176372</v>
+      </c>
+      <c r="CO4">
+        <v>996067149.0703465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>2149741.752917891</v>
+      </c>
+      <c r="E5">
+        <v>3589421.166920232</v>
+      </c>
+      <c r="F5">
+        <v>4935239.371023273</v>
+      </c>
+      <c r="G5">
+        <v>6232473.44250174</v>
+      </c>
+      <c r="H5">
+        <v>7477307.772692468</v>
+      </c>
+      <c r="I5">
+        <v>9032697.059328049</v>
+      </c>
+      <c r="J5">
+        <v>10744074.41284996</v>
+      </c>
+      <c r="K5">
+        <v>12233501.35319157</v>
+      </c>
+      <c r="L5">
+        <v>13611921.63404283</v>
+      </c>
+      <c r="M5">
+        <v>15154451.05847861</v>
+      </c>
+      <c r="N5">
+        <v>16776338.42585121</v>
+      </c>
+      <c r="O5">
+        <v>18888523.0442134</v>
+      </c>
+      <c r="P5">
+        <v>35196377.84450945</v>
+      </c>
+      <c r="Q5">
+        <v>51528035.59954034</v>
+      </c>
+      <c r="R5">
+        <v>67888993.78239109</v>
+      </c>
+      <c r="S5">
+        <v>122087396.6952634</v>
+      </c>
+      <c r="T5">
+        <v>176328062.8574587</v>
+      </c>
+      <c r="U5">
+        <v>230618602.5095789</v>
+      </c>
+      <c r="V5">
+        <v>284967836.0739294</v>
+      </c>
+      <c r="W5">
+        <v>339386549.740046</v>
+      </c>
+      <c r="X5">
+        <v>396685890.5087913</v>
+      </c>
+      <c r="Y5">
+        <v>454085001.6282278</v>
+      </c>
+      <c r="Z5">
+        <v>511606395.4078001</v>
+      </c>
+      <c r="AA5">
+        <v>569280493.3423175</v>
+      </c>
+      <c r="AB5">
+        <v>627148481.048548</v>
+      </c>
+      <c r="AC5">
+        <v>643548002.1066751</v>
+      </c>
+      <c r="AD5">
+        <v>660269974.5911388</v>
+      </c>
+      <c r="AE5">
+        <v>677409290.9107232</v>
+      </c>
+      <c r="AF5">
+        <v>695085699.8871171</v>
+      </c>
+      <c r="AG5">
+        <v>713445624.1481003</v>
+      </c>
+      <c r="AH5">
+        <v>718685483.090327</v>
+      </c>
+      <c r="AI5">
+        <v>724780808.7179302</v>
+      </c>
+      <c r="AJ5">
+        <v>731901673.5366352</v>
+      </c>
+      <c r="AK5">
+        <v>740479247.0914059</v>
+      </c>
+      <c r="AL5">
+        <v>750735834.1868997</v>
+      </c>
+      <c r="AM5">
+        <v>768745951.1678742</v>
+      </c>
+      <c r="AN5">
+        <v>788720114.2671922</v>
+      </c>
+      <c r="AO5">
+        <v>810695935.4937356</v>
+      </c>
+      <c r="AP5">
+        <v>834613336.202244</v>
+      </c>
+      <c r="AQ5">
+        <v>860300662.4172213</v>
+      </c>
+      <c r="AR5">
+        <v>895685387.2432718</v>
+      </c>
+      <c r="AS5">
+        <v>932199280.4287531</v>
+      </c>
+      <c r="AT5">
+        <v>969399916.2273333</v>
+      </c>
+      <c r="AU5">
+        <v>1006798409.595335</v>
+      </c>
+      <c r="AV5">
+        <v>1043896859.392834</v>
+      </c>
+      <c r="AW5">
+        <v>1082626415.669724</v>
+      </c>
+      <c r="AX5">
+        <v>1120185255.629311</v>
+      </c>
+      <c r="AY5">
+        <v>1156263088.138565</v>
+      </c>
+      <c r="AZ5">
+        <v>1190659147.539599</v>
+      </c>
+      <c r="BA5">
+        <v>1223288701.266657</v>
+      </c>
+      <c r="BB5">
+        <v>1252783175.254076</v>
+      </c>
+      <c r="BC5">
+        <v>1280669565.614207</v>
+      </c>
+      <c r="BD5">
+        <v>1307162375.800752</v>
+      </c>
+      <c r="BE5">
+        <v>1332537276.290987</v>
+      </c>
+      <c r="BF5">
+        <v>1357103875.573</v>
+      </c>
+      <c r="BG5">
+        <v>1380405976.872393</v>
+      </c>
+      <c r="BH5">
+        <v>1403507843.037879</v>
+      </c>
+      <c r="BI5">
+        <v>1426659454.156062</v>
+      </c>
+      <c r="BJ5">
+        <v>1450053170.312626</v>
+      </c>
+      <c r="BK5">
+        <v>1473816842.404688</v>
+      </c>
+      <c r="BL5">
+        <v>1497907822.328283</v>
+      </c>
+      <c r="BM5">
+        <v>1522432893.879849</v>
+      </c>
+      <c r="BN5">
+        <v>1547338950.06559</v>
+      </c>
+      <c r="BO5">
+        <v>1572527462.504452</v>
+      </c>
+      <c r="BP5">
+        <v>1597865368.70526</v>
+      </c>
+      <c r="BQ5">
+        <v>1623221383.103815</v>
+      </c>
+      <c r="BR5">
+        <v>1648405987.616791</v>
+      </c>
+      <c r="BS5">
+        <v>1673255739.367094</v>
+      </c>
+      <c r="BT5">
+        <v>1697619438.540542</v>
+      </c>
+      <c r="BU5">
+        <v>1721366348.88451</v>
+      </c>
+      <c r="BV5">
+        <v>1744172443.801135</v>
+      </c>
+      <c r="BW5">
+        <v>1766182317.474954</v>
+      </c>
+      <c r="BX5">
+        <v>1787350971.890066</v>
+      </c>
+      <c r="BY5">
+        <v>1807661362.608859</v>
+      </c>
+      <c r="BZ5">
+        <v>1827120141.686882</v>
+      </c>
+      <c r="CA5">
+        <v>1845360895.200796</v>
+      </c>
+      <c r="CB5">
+        <v>1862810017.911424</v>
+      </c>
+      <c r="CC5">
+        <v>1879506796.585834</v>
+      </c>
+      <c r="CD5">
+        <v>1895487574.502447</v>
+      </c>
+      <c r="CE5">
+        <v>1910779944.08582</v>
+      </c>
+      <c r="CF5">
+        <v>1924727923.617304</v>
+      </c>
+      <c r="CG5">
+        <v>1938000778.390387</v>
+      </c>
+      <c r="CH5">
+        <v>1950580779.029852</v>
+      </c>
+      <c r="CI5">
+        <v>1962434766.842548</v>
+      </c>
+      <c r="CJ5">
+        <v>1973516728.937117</v>
+      </c>
+      <c r="CK5">
+        <v>1982719177.243039</v>
+      </c>
+      <c r="CL5">
+        <v>1991034678.622113</v>
+      </c>
+      <c r="CM5">
+        <v>1998403432.570598</v>
+      </c>
+      <c r="CN5">
+        <v>2004770184.831272</v>
+      </c>
+      <c r="CO5">
+        <v>2010088156.415938</v>
       </c>
     </row>
   </sheetData>
